--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2749955.360319841</v>
+        <v>2749955.36031984</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>748312.4392596639</v>
+        <v>964446.6829529615</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>4.115135412620468</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.1269318974117</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.18727388102282</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>160.4740936944298</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>71.20366745328701</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>304.667571092204</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,25 +944,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>236.7139500600956</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>81.28380243832476</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>331.6186925417017</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>200.5805366086256</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>141.6178196669931</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>197.9218972121925</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>91.64473589963859</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>31.12299370203572</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>22.39936339804649</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>31.03316849466809</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701342</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.2681144302072</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2053,7 +2053,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>199.5828474886575</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>31.14719860312751</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>20.58581884348087</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2494,7 +2494,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>158.8680822380996</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>85.60367973263055</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>143.0817761284738</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>36.31437750814992</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.5571163376873142</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>199.4975069857288</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,22 +3235,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>192.3082080654541</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>165.6183461988014</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3320,16 +3320,16 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784685</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120.8764894826252</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>151.5766814984844</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,13 +3509,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722598</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3554,13 +3554,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.02542837032624</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>58.72849219531203</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896897</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3803,10 +3803,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>220.5437814605423</v>
       </c>
       <c r="W43" t="n">
-        <v>165.0166457727819</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>142.431255366987</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>24.37013941318887</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1426.30362575193</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C2" t="n">
-        <v>1426.30362575193</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2189.908715988822</v>
+        <v>2122.040411278466</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.442957727742</v>
+        <v>2122.040411278466</v>
       </c>
       <c r="Y2" t="n">
-        <v>1426.30362575193</v>
+        <v>1731.901079302655</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951864</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>290.8087152951864</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W4" t="n">
-        <v>290.8087152951864</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1744.740694543503</v>
+        <v>1684.117239186543</v>
       </c>
       <c r="C5" t="n">
-        <v>1375.778177603092</v>
+        <v>1684.117239186543</v>
       </c>
       <c r="D5" t="n">
-        <v>1017.512478996341</v>
+        <v>1325.851540579792</v>
       </c>
       <c r="E5" t="n">
-        <v>1017.512478996341</v>
+        <v>940.063287981548</v>
       </c>
       <c r="F5" t="n">
-        <v>606.5265742067336</v>
+        <v>529.0773831919405</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>515.1539791305314</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4577,40 +4577,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.880026519315</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y5" t="n">
-        <v>1744.740694543503</v>
+        <v>2070.717079250664</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,19 +4641,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>418.7159459272334</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>418.7159459272334</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750362</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>500.8207968750362</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>500.8207968750362</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>418.7159459272334</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>2056.787465592192</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>2056.787465592192</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1698.521766985442</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>2185.752013551832</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X8" t="n">
-        <v>1812.286255290752</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.14692331494</v>
+        <v>2443.387305656314</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.8405610245969</v>
+        <v>528.2078759112907</v>
       </c>
       <c r="C10" t="n">
-        <v>344.90437809669</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>528.2078759112907</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>528.2078759112907</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>528.2078759112907</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>528.2078759112907</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>528.2078759112907</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245969</v>
+        <v>528.2078759112907</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.8405610245969</v>
+        <v>528.2078759112907</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,67 +5024,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5115,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028589</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>264.0657286834809</v>
       </c>
       <c r="L12" t="n">
-        <v>222.5746515181233</v>
+        <v>877.9627984403695</v>
       </c>
       <c r="M12" t="n">
-        <v>990.9427979105849</v>
+        <v>1185.282931720331</v>
       </c>
       <c r="N12" t="n">
-        <v>1559.410052240715</v>
+        <v>1515.145559384364</v>
       </c>
       <c r="O12" t="n">
         <v>1808.163466324677</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683722</v>
+        <v>840.6662285267281</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404653</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404653</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404653</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404653</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1267.558893097661</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>978.4302543112198</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>723.7457661053329</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W13" t="n">
-        <v>434.3285960683722</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="X13" t="n">
-        <v>434.3285960683722</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="Y13" t="n">
-        <v>434.3285960683722</v>
+        <v>933.2366688293934</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047986</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L15" t="n">
-        <v>681.8202447131883</v>
+        <v>566.8039027478605</v>
       </c>
       <c r="M15" t="n">
-        <v>1002.15556424289</v>
+        <v>1335.172049140322</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880508</v>
+        <v>1679.69270477794</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>2349.156466080599</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.1830073829216</v>
+        <v>549.6692635248398</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>549.6692635248398</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>399.5526241125041</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1467.569635714804</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1267.649625630356</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1267.649625630356</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1267.649625630356</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1012.965137424469</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>1012.965137424469</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X16" t="n">
-        <v>784.9755865264517</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y16" t="n">
-        <v>564.1830073829216</v>
+        <v>731.3177283550796</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5504,22 +5504,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5531,28 +5531,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181233</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L18" t="n">
-        <v>836.4717212750122</v>
+        <v>3263.786115209751</v>
       </c>
       <c r="M18" t="n">
-        <v>1156.807040804714</v>
+        <v>3740.689969936338</v>
       </c>
       <c r="N18" t="n">
-        <v>1771.466266460128</v>
+        <v>4070.552597600371</v>
       </c>
       <c r="O18" t="n">
-        <v>2440.930027762787</v>
+        <v>4350.092662819068</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
         <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.921157035281</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.921157035281</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.921157035281</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W19" t="n">
-        <v>898.50398699832</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X19" t="n">
-        <v>670.5144361003026</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="Y19" t="n">
-        <v>670.5144361003026</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5747,31 +5747,31 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>2334.498159098442</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K21" t="n">
-        <v>2745.388427942954</v>
+        <v>2483.5678433005</v>
       </c>
       <c r="L21" t="n">
-        <v>2975.351533811303</v>
+        <v>3013.135467044508</v>
       </c>
       <c r="M21" t="n">
-        <v>3386.979233447482</v>
+        <v>3781.50361343697</v>
       </c>
       <c r="N21" t="n">
-        <v>4191.390811711633</v>
+        <v>4111.366241101003</v>
       </c>
       <c r="O21" t="n">
-        <v>4860.854573014293</v>
+        <v>4780.830002403663</v>
       </c>
       <c r="P21" t="n">
-        <v>4860.854573014293</v>
+        <v>4780.830002403663</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014293</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3628.091576844583</v>
+        <v>3867.696572204973</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>3867.696572204973</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014293</v>
+        <v>4829.392756243456</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>4605.607341032963</v>
       </c>
       <c r="U22" t="n">
-        <v>4347.940519017357</v>
+        <v>4316.478702246521</v>
       </c>
       <c r="V22" t="n">
-        <v>4347.940519017357</v>
+        <v>4316.478702246521</v>
       </c>
       <c r="W22" t="n">
-        <v>4058.523348980396</v>
+        <v>4316.478702246521</v>
       </c>
       <c r="X22" t="n">
-        <v>3830.533798082379</v>
+        <v>4088.489151348503</v>
       </c>
       <c r="Y22" t="n">
-        <v>3809.740041674822</v>
+        <v>3867.696572204973</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5984,55 +5984,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>413.3821780742303</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>1027.279247831119</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M24" t="n">
-        <v>1334.599381111081</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N24" t="n">
-        <v>2139.010959375231</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O24" t="n">
-        <v>2418.551024593929</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3778.50958529664</v>
+        <v>528.105874218302</v>
       </c>
       <c r="C25" t="n">
-        <v>3609.573402368733</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>3609.573402368733</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>3609.573402368733</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>3609.573402368733</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368733</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014293</v>
+        <v>1227.368356778213</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1003.582941567719</v>
       </c>
       <c r="U25" t="n">
-        <v>4550.600794437505</v>
+        <v>1003.582941567719</v>
       </c>
       <c r="V25" t="n">
-        <v>4295.916306231618</v>
+        <v>748.8984533618321</v>
       </c>
       <c r="W25" t="n">
-        <v>4006.499136194658</v>
+        <v>748.8984533618321</v>
       </c>
       <c r="X25" t="n">
-        <v>3778.50958529664</v>
+        <v>748.8984533618321</v>
       </c>
       <c r="Y25" t="n">
-        <v>3778.50958529664</v>
+        <v>528.105874218302</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6224,7 +6224,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6239,7 +6239,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095316</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="L27" t="n">
-        <v>3146.493172685134</v>
+        <v>3359.285497699842</v>
       </c>
       <c r="M27" t="n">
-        <v>3466.828492214836</v>
+        <v>4127.653644092304</v>
       </c>
       <c r="N27" t="n">
-        <v>3796.691119878869</v>
+        <v>4457.516271756336</v>
       </c>
       <c r="O27" t="n">
-        <v>4045.444533962831</v>
+        <v>4706.269685840299</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698578</v>
+        <v>4706.269685840299</v>
       </c>
       <c r="Q27" t="n">
         <v>4860.854573014292</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3495.836583318851</v>
+        <v>560.7969603949465</v>
       </c>
       <c r="C28" t="n">
-        <v>3495.836583318851</v>
+        <v>391.8607774670396</v>
       </c>
       <c r="D28" t="n">
-        <v>3495.836583318851</v>
+        <v>241.7441380547039</v>
       </c>
       <c r="E28" t="n">
-        <v>3495.836583318851</v>
+        <v>241.7441380547039</v>
       </c>
       <c r="F28" t="n">
-        <v>3495.836583318851</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3495.836583318851</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3495.836583318851</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380589</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625201</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.43553563633</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403513</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>4260.730820705228</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>4006.046332499342</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W28" t="n">
-        <v>3716.629162462381</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X28" t="n">
-        <v>3716.629162462381</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y28" t="n">
-        <v>3495.836583318851</v>
+        <v>560.7969603949465</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028564</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6543,22 +6543,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>389.4333333547257</v>
       </c>
       <c r="L30" t="n">
-        <v>738.0704661731477</v>
+        <v>636.1984612611898</v>
       </c>
       <c r="M30" t="n">
-        <v>1506.438612565609</v>
+        <v>1404.566607653651</v>
       </c>
       <c r="N30" t="n">
-        <v>1884.71518556015</v>
+        <v>1749.087263291269</v>
       </c>
       <c r="O30" t="n">
-        <v>2554.178946862809</v>
+        <v>2418.551024593929</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>505.7582697485844</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C31" t="n">
-        <v>505.7582697485844</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D31" t="n">
-        <v>355.6416303362487</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E31" t="n">
-        <v>355.6416303362487</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
         <v>208.7516828383384</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.353526782461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.353526782461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.353526782461</v>
+        <v>1297.403637238984</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.224887996019</v>
+        <v>1008.274998452543</v>
       </c>
       <c r="V31" t="n">
-        <v>954.5403997901319</v>
+        <v>753.5905102466558</v>
       </c>
       <c r="W31" t="n">
-        <v>954.5403997901319</v>
+        <v>753.5905102466558</v>
       </c>
       <c r="X31" t="n">
-        <v>726.5508488921146</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="Y31" t="n">
-        <v>505.7582697485844</v>
+        <v>525.6009593486384</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,61 +6689,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263797</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465857</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="L33" t="n">
-        <v>2771.824048372321</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="M33" t="n">
-        <v>3193.70574373683</v>
+        <v>3187.207749282368</v>
       </c>
       <c r="N33" t="n">
-        <v>3998.117322000981</v>
+        <v>3991.619327546518</v>
       </c>
       <c r="O33" t="n">
-        <v>4667.58108330364</v>
+        <v>4271.159392765216</v>
       </c>
       <c r="P33" t="n">
-        <v>4850.224560916991</v>
+        <v>4791.460014500963</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916991</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005285</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6883,25 +6883,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1304.665555340272</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1304.665555340272</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>1304.665555340272</v>
       </c>
       <c r="V34" t="n">
-        <v>986.0022165609664</v>
+        <v>1304.665555340272</v>
       </c>
       <c r="W34" t="n">
-        <v>818.7109577742983</v>
+        <v>1304.665555340272</v>
       </c>
       <c r="X34" t="n">
-        <v>818.7109577742983</v>
+        <v>1076.676004442255</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.9183786307682</v>
+        <v>855.8834252987245</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,7 +6968,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
         <v>3931.29497012173</v>
@@ -6977,10 +6977,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>2500.819361250803</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>2825.891305525632</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M36" t="n">
-        <v>3594.259451918093</v>
+        <v>843.9587363963141</v>
       </c>
       <c r="N36" t="n">
-        <v>4398.671030182244</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O36" t="n">
-        <v>4678.211095400941</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P36" t="n">
-        <v>4860.854573014292</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>530.7956248556235</v>
+        <v>646.9375622247746</v>
       </c>
       <c r="C37" t="n">
-        <v>361.8594419277166</v>
+        <v>646.9375622247746</v>
       </c>
       <c r="D37" t="n">
-        <v>361.8594419277166</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E37" t="n">
-        <v>361.8594419277166</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F37" t="n">
-        <v>361.8594419277166</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G37" t="n">
         <v>208.7516828383384</v>
@@ -7120,25 +7120,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>1187.92115703528</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V37" t="n">
-        <v>933.2366688293934</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W37" t="n">
-        <v>933.2366688293934</v>
+        <v>874.927113122792</v>
       </c>
       <c r="X37" t="n">
-        <v>933.2366688293934</v>
+        <v>646.9375622247746</v>
       </c>
       <c r="Y37" t="n">
-        <v>712.4440896858632</v>
+        <v>646.9375622247746</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,13 +7163,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7184,40 +7184,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>836.4717212750119</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1604.839867667473</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N39" t="n">
-        <v>2374.820091292176</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>268.0733921265323</v>
+        <v>3672.750738378184</v>
       </c>
       <c r="C40" t="n">
-        <v>268.0733921265323</v>
+        <v>3607.068487499066</v>
       </c>
       <c r="D40" t="n">
-        <v>268.0733921265323</v>
+        <v>3607.068487499066</v>
       </c>
       <c r="E40" t="n">
-        <v>268.0733921265323</v>
+        <v>3459.155393916673</v>
       </c>
       <c r="F40" t="n">
-        <v>268.0733921265323</v>
+        <v>3459.155393916673</v>
       </c>
       <c r="G40" t="n">
-        <v>268.0733921265323</v>
+        <v>3459.155393916673</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916673</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916673</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380583</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625194</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636323</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403506</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431054</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436451</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042134</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>4660.934562929843</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>4660.934562929843</v>
       </c>
       <c r="U40" t="n">
-        <v>1187.92115703528</v>
+        <v>4371.805924143401</v>
       </c>
       <c r="V40" t="n">
-        <v>1187.92115703528</v>
+        <v>4371.805924143401</v>
       </c>
       <c r="W40" t="n">
-        <v>898.5039869983195</v>
+        <v>4082.388754106441</v>
       </c>
       <c r="X40" t="n">
-        <v>670.5144361003022</v>
+        <v>3854.399203208423</v>
       </c>
       <c r="Y40" t="n">
-        <v>449.7218569567721</v>
+        <v>3854.399203208423</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155871</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>2785.809820480741</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>3015.77292634909</v>
+        <v>779.5615433385053</v>
       </c>
       <c r="M42" t="n">
-        <v>3336.108245878792</v>
+        <v>1547.929689730967</v>
       </c>
       <c r="N42" t="n">
-        <v>3680.62890151641</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O42" t="n">
-        <v>4350.092662819069</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.115143601279</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.9798268587604</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C43" t="n">
-        <v>527.0436439308535</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D43" t="n">
-        <v>376.9270045185178</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E43" t="n">
-        <v>376.9270045185178</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F43" t="n">
-        <v>376.9270045185178</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1044.311772267568</v>
+        <v>763.2307201361762</v>
       </c>
       <c r="W43" t="n">
-        <v>877.6282916890001</v>
+        <v>763.2307201361762</v>
       </c>
       <c r="X43" t="n">
-        <v>877.6282916890001</v>
+        <v>763.2307201361762</v>
       </c>
       <c r="Y43" t="n">
-        <v>877.6282916890001</v>
+        <v>542.438140992646</v>
       </c>
     </row>
     <row r="44">
@@ -7625,40 +7625,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028661</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7670,22 +7670,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690731</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409604</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748353</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742897</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769782</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805655</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098439</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>2334.498159098439</v>
       </c>
       <c r="K45" t="n">
-        <v>388.8958536704856</v>
+        <v>2334.498159098439</v>
       </c>
       <c r="L45" t="n">
-        <v>1002.792923427374</v>
+        <v>2564.461264966788</v>
       </c>
       <c r="M45" t="n">
-        <v>1771.161069819836</v>
+        <v>2884.79658449649</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.161069819836</v>
+        <v>3689.20816276064</v>
       </c>
       <c r="O45" t="n">
-        <v>2145.820610447073</v>
+        <v>4271.159392765214</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>4791.460014500961</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098065</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021843</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.92892764123</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409487</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681286</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475753</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710799</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>506.7814158330673</v>
+        <v>359.169691290395</v>
       </c>
       <c r="C46" t="n">
-        <v>506.7814158330673</v>
+        <v>359.169691290395</v>
       </c>
       <c r="D46" t="n">
-        <v>356.6647764207315</v>
+        <v>359.169691290395</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7516828383384</v>
+        <v>359.169691290395</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>359.169691290395</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7831,25 +7831,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W46" t="n">
-        <v>531.3977182706318</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X46" t="n">
-        <v>506.7814158330673</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.7814158330673</v>
+        <v>503.0396462065435</v>
       </c>
     </row>
   </sheetData>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142007</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0147744101987</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>314.0219397883486</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9021,13 +9021,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119831</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9243,28 +9243,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>171.296688329925</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,19 +9489,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,22 +9723,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>68.13331789572749</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>144.5924825175557</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10206,13 +10206,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,28 +10428,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>115.718749580351</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>249.0918826322874</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119825</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10911,16 +10911,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>444.563228243101</v>
+        <v>422.6611510927873</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11148,19 +11148,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>247.4643815863598</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,10 +11385,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>305.4658230160368</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>88.18724428229871</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>190.4245673563535</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>124.0345992485227</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>78.93118390912468</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.56386575173005</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>19.00180586343728</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>166.7736113804758</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>197.9988345086139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>39.05272774550363</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>200.6336726659468</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24601,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>2.339271894457397</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>74.10486795612206</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,16 +24655,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.4072360661055</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>22.05005407266043</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,22 +25123,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>5.612601918149181</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>120.9046521377896</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>27.7389835355872</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>14.91688696489314</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25360,25 +25360,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>102.2213927283016</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>90.1853361722241</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25834,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>31.59386186328567</v>
       </c>
       <c r="W43" t="n">
-        <v>121.5063525638091</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>37.40072481495034</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,22 +26071,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>201.3395159758483</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065636</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="G2" t="n">
         <v>586543.5896065626</v>
       </c>
       <c r="H2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="J2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="L2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="M2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="N2" t="n">
         <v>586543.5896065625</v>
       </c>
-      <c r="J2" t="n">
-        <v>586543.5896065633</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>586543.5896065625</v>
+      </c>
+      <c r="P2" t="n">
         <v>586543.589606563</v>
-      </c>
-      <c r="L2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="M2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="P2" t="n">
-        <v>586543.5896065627</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758286</v>
+        <v>787.7936905758999</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758693</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758286</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758178</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758942</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759772</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758284</v>
+        <v>787.7936905759511</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196104.7690603606</v>
+        <v>-196104.7690603602</v>
       </c>
       <c r="C6" t="n">
+        <v>393863.1101541841</v>
+      </c>
+      <c r="D6" t="n">
         <v>393863.1101541842</v>
       </c>
-      <c r="D6" t="n">
-        <v>393863.1101541844</v>
-      </c>
       <c r="E6" t="n">
-        <v>-31391.56650962547</v>
+        <v>-31391.56650962576</v>
       </c>
       <c r="F6" t="n">
-        <v>493768.4699672708</v>
+        <v>493768.4699672706</v>
       </c>
       <c r="G6" t="n">
         <v>493768.4699672702</v>
       </c>
       <c r="H6" t="n">
+        <v>493768.4699672704</v>
+      </c>
+      <c r="I6" t="n">
+        <v>493768.4699672703</v>
+      </c>
+      <c r="J6" t="n">
+        <v>317345.2507746775</v>
+      </c>
+      <c r="K6" t="n">
+        <v>493768.4699672702</v>
+      </c>
+      <c r="L6" t="n">
         <v>493768.4699672705</v>
       </c>
-      <c r="I6" t="n">
-        <v>493768.4699672702</v>
-      </c>
-      <c r="J6" t="n">
-        <v>317345.250774678</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>358967.4547334334</v>
+      </c>
+      <c r="N6" t="n">
+        <v>493768.46996727</v>
+      </c>
+      <c r="O6" t="n">
+        <v>493768.4699672699</v>
+      </c>
+      <c r="P6" t="n">
         <v>493768.4699672705</v>
-      </c>
-      <c r="L6" t="n">
-        <v>493768.4699672703</v>
-      </c>
-      <c r="M6" t="n">
-        <v>358967.4547334331</v>
-      </c>
-      <c r="N6" t="n">
-        <v>493768.4699672703</v>
-      </c>
-      <c r="O6" t="n">
-        <v>493768.4699672704</v>
-      </c>
-      <c r="P6" t="n">
-        <v>493768.4699672703</v>
       </c>
     </row>
   </sheetData>
@@ -26741,19 +26741,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26790,16 +26790,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>350.5679062080625</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>162.1140368200013</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.6447063009145</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>126.0489046421612</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>342.580502567508</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>19.25520167215313</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>49.80904827649545</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>137.30085091377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>50.31167753056008</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>148.6604321087874</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>6.997653351219213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>14.22364173782637</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31136,10 +31136,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31364,7 +31364,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>44.71160894580908</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>91.46870830016741</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>272.867242442218</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961188</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>302.6308261370286</v>
       </c>
       <c r="M21" t="n">
-        <v>92.21452536007791</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32731,7 +32731,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S23" t="n">
         <v>76.0697047810465</v>
@@ -32786,28 +32786,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>192.734875309199</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>148.5278971900333</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -33023,16 +33023,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>4.869128001484057</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813462</v>
@@ -33041,7 +33041,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33260,31 +33260,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>34.09688621911351</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33497,16 +33497,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>122.7111129391035</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813462</v>
@@ -33515,7 +33515,7 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33655,7 +33655,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33734,16 +33734,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>96.06953374391867</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813462</v>
@@ -33755,10 +33755,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33971,19 +33971,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33992,7 +33992,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565502</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34211,25 +34211,25 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>287.3363880394994</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34445,28 +34445,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>127.1779055992679</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34784,10 +34784,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047519</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>574.2093478082118</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>295.9776837780942</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>175.4675600084744</v>
+        <v>323.7546738237524</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408111</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>481.7210653803912</v>
       </c>
       <c r="N18" t="n">
-        <v>620.8679047024382</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415062</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>534.9167916606136</v>
       </c>
       <c r="M21" t="n">
-        <v>415.7855551880595</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>319.3586733474186</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>496.5285594502536</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>237.155093525069</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,10 +36689,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>156.1463506808016</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778055999</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>295.1679211054949</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>382.0975484793337</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>426.1431266308173</v>
+        <v>446.2821427670851</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>328.3554992675037</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>106.9578487102691</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>777.7578016411139</v>
+        <v>291.3194390094541</v>
       </c>
       <c r="O39" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37859,28 +37859,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>413.960186077719</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>580.6589549843727</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>378.443980431553</v>
+        <v>587.829525257145</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2749955.36031984</v>
+        <v>2825485.029984646</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>964446.6829529615</v>
+        <v>121326.5236958977</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>217.3301961026086</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.1269318974117</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -826,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>160.4740936944298</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>6.677252069736878</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>304.667571092204</v>
+        <v>296.4738938526976</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>236.7139500600956</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>125.3787979092682</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>331.6186925417017</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>100.7763998124753</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>197.9218972121925</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.64473589963859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>176.219319815899</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>22.39936339804649</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>194.9576419790505</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701342</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2008,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>12.90368342835881</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>199.5828474886575</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2138,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>31.14719860312751</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>218.5843930538366</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>158.8680822380996</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>43.36623077306952</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>143.0817761284738</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.56247610797681</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>79.47420870022061</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>199.4975069857288</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,10 +3034,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3187,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>192.3082080654541</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>120.7078313884401</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784685</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>120.8764894826252</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3472,16 +3474,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>170.3744282815729</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722598</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3554,13 +3556,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>65.02542837032624</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.64843562452403</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896897</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5437814605423</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>214.6986645196624</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>142.431255366987</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>21.86696197154526</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1345.301239238533</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.301239238533</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="W2" t="n">
-        <v>2122.040411278466</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="X2" t="n">
-        <v>2122.040411278466</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="Y2" t="n">
-        <v>1731.901079302655</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,19 +4433,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541695</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>573.2376265802779</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1684.117239186543</v>
+        <v>1568.149526959219</v>
       </c>
       <c r="C5" t="n">
-        <v>1684.117239186543</v>
+        <v>1568.149526959219</v>
       </c>
       <c r="D5" t="n">
-        <v>1325.851540579792</v>
+        <v>1568.149526959219</v>
       </c>
       <c r="E5" t="n">
-        <v>940.063287981548</v>
+        <v>1182.361274360975</v>
       </c>
       <c r="F5" t="n">
-        <v>529.0773831919405</v>
+        <v>771.3753695713672</v>
       </c>
       <c r="G5" t="n">
-        <v>515.1539791305314</v>
+        <v>353.411561469554</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520779</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>2070.717079250664</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y5" t="n">
-        <v>2070.717079250664</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>601.483733793032</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2056.787465592192</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C8" t="n">
-        <v>2056.787465592192</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D8" t="n">
-        <v>1698.521766985442</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>727.1671091720125</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>309.2033010701994</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>2443.387305656314</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.2078759112907</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C10" t="n">
-        <v>359.2716929833838</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D10" t="n">
-        <v>359.2716929833838</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2716929833838</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>528.2078759112907</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>528.2078759112907</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U10" t="n">
-        <v>528.2078759112907</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V10" t="n">
-        <v>528.2078759112907</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W10" t="n">
-        <v>528.2078759112907</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X10" t="n">
-        <v>528.2078759112907</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y10" t="n">
-        <v>528.2078759112907</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>264.0657286834809</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>877.9627984403695</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M12" t="n">
-        <v>1185.282931720331</v>
+        <v>1509.998813918811</v>
       </c>
       <c r="N12" t="n">
-        <v>1515.145559384364</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>840.6662285267281</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C13" t="n">
-        <v>671.7300455988212</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>671.7300455988212</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>933.2366688293934</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>933.2366688293934</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X13" t="n">
-        <v>933.2366688293934</v>
+        <v>754.894602230607</v>
       </c>
       <c r="Y13" t="n">
-        <v>933.2366688293934</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5309,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5360,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>246.2867756623457</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>566.8039027478605</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M15" t="n">
-        <v>1335.172049140322</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N15" t="n">
-        <v>1679.69270477794</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O15" t="n">
-        <v>2349.156466080599</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>549.6692635248398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6692635248398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>399.5526241125041</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5470,16 +5472,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W16" t="n">
-        <v>731.3177283550796</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X16" t="n">
-        <v>731.3177283550796</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>731.3177283550796</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,16 +5500,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5516,7 +5518,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,13 +5542,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.29497012173</v>
@@ -5555,10 +5557,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3263.786115209751</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>3740.689969936338</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N18" t="n">
-        <v>4070.552597600371</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O18" t="n">
-        <v>4350.092662819068</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P18" t="n">
-        <v>4555.115143601278</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.130185042679</v>
+        <v>260.6691235773515</v>
       </c>
       <c r="C19" t="n">
-        <v>245.130185042679</v>
+        <v>260.6691235773515</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>260.6691235773515</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>260.6691235773515</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>260.6691235773515</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5707,16 +5709,16 @@
         <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247858</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878251</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X19" t="n">
-        <v>446.7290208898078</v>
+        <v>481.4617027208816</v>
       </c>
       <c r="Y19" t="n">
-        <v>245.130185042679</v>
+        <v>260.6691235773515</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5756,13 +5758,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>2483.5678433005</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>3013.135467044508</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>3781.50361343697</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N21" t="n">
-        <v>4111.366241101003</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O21" t="n">
-        <v>4780.830002403663</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P21" t="n">
-        <v>4780.830002403663</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3867.696572204973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3867.696572204973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3717.579932792637</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3717.579932792637</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4829.392756243456</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4605.607341032963</v>
+        <v>1078.203944257458</v>
       </c>
       <c r="U22" t="n">
-        <v>4316.478702246521</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="V22" t="n">
-        <v>4316.478702246521</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W22" t="n">
-        <v>4316.478702246521</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X22" t="n">
-        <v>4088.489151348503</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>3867.696572204973</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,19 +5989,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L24" t="n">
-        <v>836.4717212750119</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M24" t="n">
-        <v>1156.807040804714</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N24" t="n">
-        <v>1648.370314660465</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O24" t="n">
-        <v>2317.834075963124</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>528.105874218302</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C25" t="n">
-        <v>359.1696912903951</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6174,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1227.368356778213</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1003.582941567719</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>1003.582941567719</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>748.8984533618321</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W25" t="n">
-        <v>748.8984533618321</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X25" t="n">
-        <v>748.8984533618321</v>
+        <v>936.0662010112162</v>
       </c>
       <c r="Y25" t="n">
-        <v>528.105874218302</v>
+        <v>892.2619275030652</v>
       </c>
     </row>
     <row r="26">
@@ -6218,10 +6220,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6233,31 +6235,31 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>2334.498159098441</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2745.388427942954</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>3359.285497699842</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M27" t="n">
-        <v>4127.653644092304</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N27" t="n">
-        <v>4457.516271756336</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O27" t="n">
-        <v>4706.269685840299</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P27" t="n">
-        <v>4706.269685840299</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7969603949465</v>
+        <v>4334.963857167332</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8607774670396</v>
+        <v>4166.027674239425</v>
       </c>
       <c r="D28" t="n">
-        <v>241.7441380547039</v>
+        <v>4015.911034827089</v>
       </c>
       <c r="E28" t="n">
-        <v>241.7441380547039</v>
+        <v>3867.997941244696</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4805.740960784014</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>4805.740960784014</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>4805.740960784014</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>4516.612321997572</v>
       </c>
       <c r="V28" t="n">
-        <v>1298.996260473455</v>
+        <v>4516.612321997572</v>
       </c>
       <c r="W28" t="n">
-        <v>1009.579090436494</v>
+        <v>4516.612321997572</v>
       </c>
       <c r="X28" t="n">
-        <v>781.5895395384766</v>
+        <v>4516.612321997572</v>
       </c>
       <c r="Y28" t="n">
-        <v>560.7969603949465</v>
+        <v>4516.612321997572</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6485,28 +6487,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>389.4333333547257</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>636.1984612611898</v>
+        <v>619.3968890222129</v>
       </c>
       <c r="M30" t="n">
-        <v>1404.566607653651</v>
+        <v>1387.765035414674</v>
       </c>
       <c r="N30" t="n">
-        <v>1749.087263291269</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O30" t="n">
-        <v>2418.551024593929</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>525.6009593486384</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C31" t="n">
-        <v>356.6647764207315</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
-        <v>356.6647764207315</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6649,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1297.403637238984</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1008.274998452543</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>753.5905102466558</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>753.5905102466558</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>525.6009593486384</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y31" t="n">
-        <v>525.6009593486384</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6682,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6698,19 +6700,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>2745.388427942954</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>2745.388427942954</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M33" t="n">
-        <v>3187.207749282368</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N33" t="n">
-        <v>3991.619327546518</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O33" t="n">
-        <v>4271.159392765216</v>
+        <v>2246.748416482984</v>
       </c>
       <c r="P33" t="n">
-        <v>4791.460014500963</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>674.2349604684848</v>
+        <v>678.2225136306376</v>
       </c>
       <c r="C34" t="n">
-        <v>674.2349604684848</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D34" t="n">
-        <v>674.2349604684848</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
         <v>359.1696912903951</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1304.665555340272</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1304.665555340272</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1304.665555340272</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.665555340272</v>
+        <v>1087.860529358895</v>
       </c>
       <c r="W34" t="n">
-        <v>1304.665555340272</v>
+        <v>1087.860529358895</v>
       </c>
       <c r="X34" t="n">
-        <v>1076.676004442255</v>
+        <v>859.8709784608774</v>
       </c>
       <c r="Y34" t="n">
-        <v>855.8834252987245</v>
+        <v>859.8709784608774</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,22 +6925,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,13 +6973,13 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>738.0704661731477</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>843.9587363963141</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.370314660465</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O36" t="n">
-        <v>2317.834075963124</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>646.9375622247746</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="C37" t="n">
-        <v>646.9375622247746</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D37" t="n">
-        <v>524.8400981009108</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E37" t="n">
-        <v>376.9270045185177</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185177</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
@@ -7120,25 +7122,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1215.745785017129</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>991.960369806635</v>
       </c>
       <c r="U37" t="n">
-        <v>874.927113122792</v>
+        <v>991.960369806635</v>
       </c>
       <c r="V37" t="n">
-        <v>874.927113122792</v>
+        <v>737.2758816007481</v>
       </c>
       <c r="W37" t="n">
-        <v>874.927113122792</v>
+        <v>737.2758816007481</v>
       </c>
       <c r="X37" t="n">
-        <v>646.9375622247746</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="Y37" t="n">
-        <v>646.9375622247746</v>
+        <v>509.2863307027308</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,19 +7165,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M39" t="n">
-        <v>1608.660951743751</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N39" t="n">
-        <v>1897.067196363111</v>
+        <v>1850.959268203227</v>
       </c>
       <c r="O39" t="n">
-        <v>2145.820610447073</v>
+        <v>2099.712682287189</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3672.750738378184</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C40" t="n">
-        <v>3607.068487499066</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D40" t="n">
-        <v>3607.068487499066</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916673</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916673</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916673</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916673</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916673</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380583</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625194</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636323</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403506</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431054</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436451</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042134</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929843</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4660.934562929843</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4371.805924143401</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>4371.805924143401</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>4082.388754106441</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>3854.399203208423</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>3854.399203208423</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155871</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,28 +7478,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>779.5615433385053</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1547.929689730967</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N42" t="n">
         <v>2122.782055165496</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>542.438140992646</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="C43" t="n">
-        <v>542.438140992646</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D43" t="n">
-        <v>542.438140992646</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123425</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123425</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028581</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V43" t="n">
-        <v>763.2307201361762</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W43" t="n">
-        <v>763.2307201361762</v>
+        <v>1082.128922574806</v>
       </c>
       <c r="X43" t="n">
-        <v>763.2307201361762</v>
+        <v>854.1393716767884</v>
       </c>
       <c r="Y43" t="n">
-        <v>542.438140992646</v>
+        <v>854.1393716767884</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,34 +7633,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7667,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7688,10 +7690,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690731</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409604</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748353</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742897</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769782</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805655</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098439</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2334.498159098439</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2334.498159098439</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>2564.461264966788</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M45" t="n">
-        <v>2884.79658449649</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N45" t="n">
-        <v>3689.20816276064</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O45" t="n">
-        <v>4271.159392765214</v>
+        <v>1992.35927141665</v>
       </c>
       <c r="P45" t="n">
-        <v>4791.460014500961</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098065</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021843</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.92892764123</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409487</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681286</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475753</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710799</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>359.169691290395</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C46" t="n">
-        <v>359.169691290395</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D46" t="n">
-        <v>359.169691290395</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E46" t="n">
-        <v>359.169691290395</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F46" t="n">
-        <v>359.169691290395</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>359.169691290395</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383383</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7834,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>731.0291971045608</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X46" t="n">
-        <v>503.0396462065435</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y46" t="n">
-        <v>503.0396462065435</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8298,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>355.120106368988</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,13 +9023,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>171.296688329925</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,13 +9491,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,19 +9965,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>68.13331789572749</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>144.5924825175557</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10206,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,7 +10442,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10449,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>249.0918826322874</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10680,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10832,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119825</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>422.6611510927873</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>247.4643815863598</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11160,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,7 +11390,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>305.4658230160368</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.18724428229871</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>42.36533353619575</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>124.0345992485227</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>30.7520134099866</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>153.5898850350188</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23947,16 +23949,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.00180586343728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>166.7736113804758</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>2.963168004552614</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>39.05272774550363</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>175.2184225790253</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.339271894457397</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>55.40187629581599</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>87.77261239840722</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24856,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>22.05005407266043</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>5.612601918149181</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>131.4298119353879</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>27.7389835355872</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>27.54638170203032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>102.2213927283016</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>91.26539274301209</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25597,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25801,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>31.59386186328567</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>71.82433381692863</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.40072481495034</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>124.5670006750239</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982127</v>
@@ -26323,37 +26325,37 @@
         <v>586543.5896065626</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="G2" t="n">
         <v>586543.5896065626</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="I2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="J2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="K2" t="n">
-        <v>586543.5896065626</v>
-      </c>
       <c r="L2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="M2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="N2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="M2" t="n">
-        <v>586543.5896065631</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.5896065625</v>
-      </c>
       <c r="O2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.589606563</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065627</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758999</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="L4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="M4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="K4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758942</v>
-      </c>
       <c r="N4" t="n">
-        <v>787.7936905759772</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905759511</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,7 +26490,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26503,13 +26505,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196104.7690603602</v>
+        <v>-196104.7690603601</v>
       </c>
       <c r="C6" t="n">
-        <v>393863.1101541841</v>
+        <v>393863.1101541843</v>
       </c>
       <c r="D6" t="n">
-        <v>393863.1101541842</v>
+        <v>393863.1101541843</v>
       </c>
       <c r="E6" t="n">
-        <v>-31391.56650962576</v>
+        <v>-31391.56650962602</v>
       </c>
       <c r="F6" t="n">
-        <v>493768.4699672706</v>
+        <v>493768.4699672703</v>
       </c>
       <c r="G6" t="n">
         <v>493768.4699672702</v>
       </c>
       <c r="H6" t="n">
-        <v>493768.4699672704</v>
+        <v>493768.4699672706</v>
       </c>
       <c r="I6" t="n">
+        <v>493768.4699672702</v>
+      </c>
+      <c r="J6" t="n">
+        <v>317345.2507746773</v>
+      </c>
+      <c r="K6" t="n">
+        <v>493768.4699672705</v>
+      </c>
+      <c r="L6" t="n">
+        <v>493768.4699672707</v>
+      </c>
+      <c r="M6" t="n">
+        <v>358967.4547334331</v>
+      </c>
+      <c r="N6" t="n">
+        <v>493768.4699672705</v>
+      </c>
+      <c r="O6" t="n">
+        <v>493768.4699672705</v>
+      </c>
+      <c r="P6" t="n">
         <v>493768.4699672703</v>
-      </c>
-      <c r="J6" t="n">
-        <v>317345.2507746775</v>
-      </c>
-      <c r="K6" t="n">
-        <v>493768.4699672702</v>
-      </c>
-      <c r="L6" t="n">
-        <v>493768.4699672705</v>
-      </c>
-      <c r="M6" t="n">
-        <v>358967.4547334334</v>
-      </c>
-      <c r="N6" t="n">
-        <v>493768.46996727</v>
-      </c>
-      <c r="O6" t="n">
-        <v>493768.4699672699</v>
-      </c>
-      <c r="P6" t="n">
-        <v>493768.4699672705</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,10 +26758,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>33.8939714056807</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>162.1140368200013</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27546,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>126.0489046421612</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>211.9074012823579</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>19.25520167215313</v>
+        <v>27.44887891165951</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>49.80904827649545</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>100.330857479769</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>50.31167753056008</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>223.1463729518819</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>14.22364173782637</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,7 +31138,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>86.4344768999344</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,28 +31843,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>288.1533596602011</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>44.71160894580908</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31987,25 +31989,25 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,37 +32077,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>91.46870830016741</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>245.2687781552867</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32321,22 +32323,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>171.3135836203299</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32549,31 +32551,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>302.6308261370286</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>111.3199910445496</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,16 +32727,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32788,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>148.5278971900333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>41.93843809132551</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,25 +32937,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33025,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>53.91631260018721</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,28 +33262,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0.5433631145234017</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33497,16 +33499,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>122.7111129391035</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813462</v>
@@ -33515,13 +33517,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>126.0475280469432</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33734,31 +33736,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>171.3135836203299</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33971,16 +33973,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -33989,10 +33991,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>274.5684716790595</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34138,10 +34140,10 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565502</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
         <v>562.4526372540886</v>
@@ -34214,13 +34216,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>171.3135836203299</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34232,7 +34234,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,10 +34447,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -34457,25 +34459,25 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>155.0114535660847</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>392.9827086369145</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047519</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>611.7243894881827</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>295.9776837780942</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>323.7546738237524</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>593.2694404155069</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>481.7210653803912</v>
+        <v>494.8846134483115</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>534.9167916606136</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>295.8083522701565</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>496.5285594502536</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>293.2045129236106</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>401.9169748604074</v>
       </c>
       <c r="O27" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>156.1463506808016</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>295.1679211054949</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>232.8293286381084</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>446.2821427670851</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>310.5358892725502</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>106.9578487102691</v>
+        <v>494.8846134483115</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>291.3194390094541</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>459.0568329046665</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,10 +37788,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>494.8846134483115</v>
       </c>
       <c r="N42" t="n">
-        <v>580.6589549843727</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
         <v>251.2660748322851</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
@@ -38105,16 +38107,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>587.829525257145</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>339.4998147916916</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2825485.029984646</v>
+        <v>2818468.015092934</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>121326.5236958977</v>
+        <v>569107.6246477523</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>114.8791903675471</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>217.3301961026086</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498675</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.677252069736878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>296.4738938526976</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>10.29095677511081</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>125.3787979092682</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>246.9035352307505</v>
       </c>
       <c r="H8" t="n">
-        <v>100.7763998124753</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586832</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>28.50892202315653</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>176.219319815899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>18.39380677855385</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>194.9576419790505</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>12.90368342835881</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>218.5843930538366</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274077</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.36623077306952</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.56247610797681</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>79.47420870022061</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>199.8217265445594</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -3246,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>120.7078313884401</v>
+        <v>3.263719825563607</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>170.3744282815729</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.64843562452403</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>8.525532102718971</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>214.6986645196624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>21.86696197154526</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1637.643464250441</v>
+        <v>1865.381229508783</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>1865.381229508783</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2027.782796226253</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2027.782796226253</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2027.782796226253</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2027.782796226253</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>1637.643464250441</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>573.2376265802779</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>573.2376265802779</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>573.2376265802779</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>573.2376265802779</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>573.2376265802779</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.149526959219</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.149526959219</v>
+        <v>829.260743669417</v>
       </c>
       <c r="D5" t="n">
-        <v>1568.149526959219</v>
+        <v>470.9950450626665</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.361274360975</v>
+        <v>85.20679246442228</v>
       </c>
       <c r="F5" t="n">
-        <v>771.3753695713672</v>
+        <v>78.2612917152188</v>
       </c>
       <c r="G5" t="n">
-        <v>353.411561469554</v>
+        <v>64.3378876538097</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>64.3378876538097</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.288858935031</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y5" t="n">
-        <v>1568.149526959219</v>
+        <v>1584.82310067395</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4652,19 +4652,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>773.5003462121382</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1297.647259770169</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1851.37379586972</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X7" t="n">
-        <v>601.483733793032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>1580.775345511215</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.41871256837</v>
+        <v>1580.775345511215</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>1580.775345511215</v>
       </c>
       <c r="E8" t="n">
-        <v>1138.15301396162</v>
+        <v>1194.987092912971</v>
       </c>
       <c r="F8" t="n">
-        <v>727.1671091720125</v>
+        <v>784.0011881233634</v>
       </c>
       <c r="G8" t="n">
-        <v>309.2033010701994</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748107</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1970.914677487027</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>1580.775345511215</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810045</v>
+        <v>559.1928012785272</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810045</v>
+        <v>409.0761618661915</v>
       </c>
       <c r="E10" t="n">
-        <v>108.9687959810045</v>
+        <v>261.1630682837983</v>
       </c>
       <c r="F10" t="n">
-        <v>108.9687959810045</v>
+        <v>114.273120785888</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,31 +5108,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L12" t="n">
-        <v>904.39166832551</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M12" t="n">
-        <v>1509.998813918811</v>
+        <v>647.5155168583367</v>
       </c>
       <c r="N12" t="n">
-        <v>1854.519469556429</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O12" t="n">
         <v>2103.272883640391</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>395.2468244550147</v>
+        <v>843.8929204411535</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5220,31 +5220,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347405</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347405</v>
       </c>
       <c r="V13" t="n">
-        <v>1044.311772267568</v>
+        <v>1275.130855347405</v>
       </c>
       <c r="W13" t="n">
-        <v>754.894602230607</v>
+        <v>1246.333964414923</v>
       </c>
       <c r="X13" t="n">
-        <v>754.894602230607</v>
+        <v>1246.333964414923</v>
       </c>
       <c r="Y13" t="n">
-        <v>576.8952892852544</v>
+        <v>1025.541385271393</v>
       </c>
     </row>
     <row r="14">
@@ -5278,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>836.4717212750119</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="M15" t="n">
-        <v>1604.839867667473</v>
+        <v>542.909971047825</v>
       </c>
       <c r="N15" t="n">
-        <v>2192.176613678825</v>
+        <v>1347.321549311976</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>434.390024399142</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>434.390024399142</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>434.390024399142</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>434.390024399142</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>434.390024399142</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>266.2147027189626</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>115.7966942669059</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609664</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W16" t="n">
-        <v>696.5850465240057</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>616.0384892293818</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>616.0384892293818</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1778.261399527878</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N18" t="n">
-        <v>2122.782055165496</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.6691235773515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>260.6691235773515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>260.6691235773515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>260.6691235773515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>260.6691235773515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188989</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>709.4512536188989</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>481.4617027208816</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.6691235773515</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5752,19 +5752,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1442.339749591389</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
-        <v>1786.860405229007</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2035.613819312969</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5940,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1078.203944257458</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>789.0753054710162</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V22" t="n">
-        <v>789.0753054710162</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>499.6581354340557</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,19 +5989,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>388.8958536704856</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L24" t="n">
-        <v>618.8589595388348</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M24" t="n">
-        <v>939.1942790685366</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N24" t="n">
-        <v>1743.605857332687</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1164.055751909234</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>1164.055751909234</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>936.0662010112162</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>892.2619275030652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,67 +6211,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>618.8589595388348</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1387.227105931296</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1785.124911043099</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4334.963857167332</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>4166.027674239425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>4015.911034827089</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3867.997941244696</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4805.740960784014</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4805.740960784014</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4805.740960784014</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4516.612321997572</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4516.612321997572</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4516.612321997572</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4516.612321997572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>4516.612321997572</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704856</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L30" t="n">
-        <v>619.3968890222129</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M30" t="n">
-        <v>1387.765035414674</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
-        <v>2192.176613678825</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>324.3840174432676</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170374</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.0324822735073</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="32">
@@ -6679,10 +6679,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,19 +6691,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>452.5377573864724</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>772.8730769161741</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.284655180325</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2246.748416482984</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>678.2225136306376</v>
+        <v>696.2811958984814</v>
       </c>
       <c r="C34" t="n">
-        <v>509.2863307027308</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D34" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E34" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G34" t="n">
         <v>359.1696912903951</v>
@@ -6855,7 +6855,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6894,16 +6894,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1087.860529358895</v>
+        <v>1206.490945078972</v>
       </c>
       <c r="W34" t="n">
-        <v>1087.860529358895</v>
+        <v>917.0737750420116</v>
       </c>
       <c r="X34" t="n">
-        <v>859.8709784608774</v>
+        <v>917.0737750420116</v>
       </c>
       <c r="Y34" t="n">
-        <v>859.8709784608774</v>
+        <v>696.2811958984814</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>1778.261399527878</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N36" t="n">
-        <v>2122.782055165496</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O36" t="n">
-        <v>2371.535469249458</v>
+        <v>1891.427750556797</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1215.745785017129</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>991.960369806635</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>991.960369806635</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>737.2758816007481</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>737.2758816007481</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,16 +7168,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>738.0704661731477</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>1506.438612565609</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N39" t="n">
-        <v>1850.959268203227</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O39" t="n">
-        <v>2099.712682287189</v>
+        <v>1891.427750556797</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2411.728372292545</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1778.261399527878</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>672.4909068465487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>1298.996260473455</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>1082.128922574806</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>854.1393716767884</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>854.1393716767884</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>618.8589595388348</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>939.1942790685366</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1743.605857332687</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1992.35927141665</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.4856756861153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>699.5494927582084</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1270.926719659885</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>1050.134140516355</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>355.120106368988</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8792,7 +8792,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9026,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9251,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>137.4682402278088</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11153,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>258.0140763134345</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.36533353619575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>92.02543868571814</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>30.7520134099866</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>153.5898850350188</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2.963168004552614</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y25" t="n">
-        <v>175.2184225790253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.40187629581599</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>87.77261239840722</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24897,7 +24897,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>52.3159167792686</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>131.4298119353879</v>
+        <v>248.8739234982644</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>27.54638170203032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>91.26539274301209</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>213.0220289556703</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>71.82433381692863</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>124.5670006750239</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="F2" t="n">
         <v>586543.5896065626</v>
       </c>
-      <c r="F2" t="n">
-        <v>586543.5896065627</v>
-      </c>
       <c r="G2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065625</v>
       </c>
       <c r="I2" t="n">
         <v>586543.5896065626</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065625</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="N2" t="n">
         <v>586543.589606563</v>
@@ -26355,7 +26355,7 @@
         <v>586543.589606563</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065629</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.1391806192</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759104</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
@@ -26450,13 +26450,13 @@
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="N4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="O4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,31 +26487,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196104.7690603601</v>
+        <v>-196104.7690603603</v>
       </c>
       <c r="C6" t="n">
-        <v>393863.1101541843</v>
+        <v>393863.1101541837</v>
       </c>
       <c r="D6" t="n">
-        <v>393863.1101541843</v>
+        <v>393863.1101541839</v>
       </c>
       <c r="E6" t="n">
-        <v>-31391.56650962602</v>
+        <v>-32366.15776934717</v>
       </c>
       <c r="F6" t="n">
-        <v>493768.4699672703</v>
+        <v>492793.8787075485</v>
       </c>
       <c r="G6" t="n">
-        <v>493768.4699672702</v>
+        <v>492793.8787075487</v>
       </c>
       <c r="H6" t="n">
-        <v>493768.4699672706</v>
+        <v>492793.8787075484</v>
       </c>
       <c r="I6" t="n">
-        <v>493768.4699672702</v>
+        <v>492793.8787075485</v>
       </c>
       <c r="J6" t="n">
-        <v>317345.2507746773</v>
+        <v>316370.6595149554</v>
       </c>
       <c r="K6" t="n">
-        <v>493768.4699672705</v>
+        <v>492793.8787075487</v>
       </c>
       <c r="L6" t="n">
-        <v>493768.4699672707</v>
+        <v>492793.878707549</v>
       </c>
       <c r="M6" t="n">
-        <v>358967.4547334331</v>
+        <v>357992.8634737118</v>
       </c>
       <c r="N6" t="n">
-        <v>493768.4699672705</v>
+        <v>492793.8787075488</v>
       </c>
       <c r="O6" t="n">
-        <v>493768.4699672705</v>
+        <v>492793.8787075488</v>
       </c>
       <c r="P6" t="n">
-        <v>493768.4699672703</v>
+        <v>492793.8787075487</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,7 +26755,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>239.8038512531359</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>33.8939714056807</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168084</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.9074012823579</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>27.44887891165951</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>141.6403594697505</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>100.330857479769</v>
+        <v>96.92615468724705</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>166.8806347900445</v>
       </c>
       <c r="H8" t="n">
-        <v>223.1463729518819</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831826</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28292,7 +28292,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.298977755714201e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31150,19 +31150,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31381,25 +31381,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.8798454939265</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,40 +31521,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382424022</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,22 +31840,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>288.1533596602011</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>446.235302870482</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
@@ -31864,13 +31864,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,31 +32077,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>245.2687781552867</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>214.2308110391306</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32259,7 +32259,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S17" t="n">
         <v>76.06970478104648</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,22 +32323,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>171.3135836203299</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,28 +32560,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>111.3199910445496</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,25 +32788,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>41.93843809132551</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -32952,7 +32952,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130445</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
@@ -33028,22 +33028,22 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>53.91631260018721</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,19 +33262,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L30" t="n">
-        <v>0.5433631145234017</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33283,16 +33283,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,16 +33438,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33502,22 +33502,22 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>126.0475280469432</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,37 +33736,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>171.3135836203299</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>246.2250987807837</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,37 +33973,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>274.5684716790595</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>143.8894692628929</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,25 +34140,25 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>171.3135836203299</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,37 +34447,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>155.0114535660847</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>392.9827086369145</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262116</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530451</v>
@@ -35193,7 +35193,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624598</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>611.7243894881827</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>794.2359651307022</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187117</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>593.2694404155069</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>465.4968858714157</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35971,22 +35971,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>494.8846134483115</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>6.126528144475494</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,19 +36208,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>295.8083522701565</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>293.2045129236106</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
@@ -36676,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>401.9169748604074</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L30" t="n">
-        <v>232.8293286381084</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>310.5358892725502</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>494.8846134483115</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>430.7134600063906</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37563,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>459.0568329046665</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>213.9849829127205</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,19 +37867,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>494.8846134483115</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>339.4998147916916</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2818468.015092934</v>
+        <v>2823407.277941966</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>569107.6246477523</v>
+        <v>757685.5759958307</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>114.8791903675471</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>140.9971593390837</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964034</v>
+        <v>17.1421677359881</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,10 +913,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>10.29095677511081</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>122.7769566578273</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>80.88877949312982</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>128.7835007017901</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>246.9035352307505</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>295.1859155131049</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>71.19517843009956</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586832</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>28.50892202315653</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>13.07229613893477</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470136</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>18.39380677855385</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>223.6278847331928</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>220.0883375064762</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>114.9309043193597</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>237.3965091869248</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>189.1345660026594</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>122.65197883716</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>199.8217265445594</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>169.7438101404427</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>229.0573510538004</v>
       </c>
       <c r="V34" t="n">
-        <v>3.263719825563607</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670925</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>169.7438101404424</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>109.6690920422038</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>121.0738855299386</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>8.525532102718971</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1865.381229508783</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C2" t="n">
-        <v>1865.381229508783</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2499.699028478934</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2245.937243117025</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1914.874355773455</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1562.105700503341</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1188.639942242261</v>
       </c>
       <c r="Y2" t="n">
-        <v>2251.981069572904</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4427,34 +4427,34 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>496.5252400791544</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>496.5252400791544</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036446</v>
+        <v>496.5252400791544</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036446</v>
+        <v>496.5252400791544</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5356891811371</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1198.223260609829</v>
+        <v>1129.234822142136</v>
       </c>
       <c r="C5" t="n">
-        <v>829.260743669417</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D5" t="n">
-        <v>470.9950450626665</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E5" t="n">
-        <v>85.20679246442228</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>78.2612917152188</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>64.3378876538097</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>64.3378876538097</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2573.131963081023</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2573.131963081023</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205144</v>
+        <v>2242.069075737452</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.28885893503</v>
+        <v>1889.300420467338</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.82310067395</v>
+        <v>1515.834662206258</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.82310067395</v>
+        <v>1515.834662206258</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4661,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="W7" t="n">
-        <v>184.0273259635867</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1580.775345511215</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="C8" t="n">
-        <v>1580.775345511215</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="D8" t="n">
-        <v>1580.775345511215</v>
+        <v>1162.808134697004</v>
       </c>
       <c r="E8" t="n">
-        <v>1194.987092912971</v>
+        <v>777.0198820987598</v>
       </c>
       <c r="F8" t="n">
-        <v>784.0011881233634</v>
+        <v>366.0339773091522</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>352.1105732477432</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018221</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018221</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018221</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018221</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748107</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487027</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511215</v>
+        <v>1521.073833303755</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036442</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641996</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064341</v>
+        <v>656.2146625598692</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785272</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661915</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837983</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F10" t="n">
-        <v>114.273120785888</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5032,61 +5032,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L12" t="n">
-        <v>327.180197328635</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="M12" t="n">
-        <v>647.5155168583367</v>
+        <v>865.5852378527477</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.809122337732</v>
+        <v>1669.996816116899</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.272883640391</v>
+        <v>2339.460577419558</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>843.8929204411535</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C13" t="n">
-        <v>674.9567375132466</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>524.8400981009108</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980071</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585753</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557909</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557909</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557909</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347405</v>
+        <v>1275.130855347415</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347405</v>
+        <v>986.0022165609735</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347405</v>
+        <v>986.0022165609735</v>
       </c>
       <c r="W13" t="n">
-        <v>1246.333964414923</v>
+        <v>986.0022165609735</v>
       </c>
       <c r="X13" t="n">
-        <v>1246.333964414923</v>
+        <v>758.0126656629561</v>
       </c>
       <c r="Y13" t="n">
-        <v>1025.541385271393</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="14">
@@ -5257,25 +5257,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155902</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5284,46 +5284,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>222.5746515181232</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>542.909971047825</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1347.321549311976</v>
+        <v>2107.32270539078</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>434.390024399142</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C16" t="n">
-        <v>434.390024399142</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D16" t="n">
-        <v>434.390024399142</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>434.390024399142</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>434.390024399142</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G16" t="n">
-        <v>266.2147027189626</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>115.7966942669059</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401273991</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W16" t="n">
-        <v>844.0280401273991</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="X16" t="n">
-        <v>616.0384892293818</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y16" t="n">
-        <v>616.0384892293818</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="17">
@@ -5512,34 +5512,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M18" t="n">
-        <v>1122.004430061687</v>
+        <v>417.5524109899877</v>
       </c>
       <c r="N18" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>1276.604818531159</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,34 +5764,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,22 +5828,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>160.9542590796154</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>571.8445279241282</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>1185.741597681017</v>
       </c>
       <c r="M21" t="n">
-        <v>2056.693778606511</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.3089140050936</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>835.416391538794</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>843.7395088768808</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>615.7499579788634</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>394.9573788353333</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5977,22 +5977,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,34 +6004,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,13 +6071,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>436.8967109626376</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>884.1658290986585</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>884.1658290986585</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>884.1658290986585</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>656.1762782006411</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6205,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,28 +6293,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6387,13 +6387,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,16 +6402,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
         <v>1158.436939387592</v>
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,37 +6454,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,22 +6545,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>436.8967109626376</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>1050.793780719526</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>1819.161927111988</v>
+        <v>334.2881267578666</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
         <v>97.21709146028584</v>
@@ -6624,13 +6624,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>1186.00103929694</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W31" t="n">
-        <v>896.5838692599799</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="X31" t="n">
-        <v>668.5943183619626</v>
+        <v>268.6754855415411</v>
       </c>
       <c r="Y31" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L33" t="n">
-        <v>1122.004430061687</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="M33" t="n">
-        <v>1890.372576454149</v>
+        <v>334.2881267578666</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.2811958984814</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V34" t="n">
-        <v>1206.490945078972</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W34" t="n">
-        <v>917.0737750420116</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X34" t="n">
-        <v>917.0737750420116</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>696.2811958984814</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>417.5524109899876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1891.427750556797</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7098,13 +7098,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7256,22 +7256,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>417.5524109899876</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1891.427750556797</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2411.728372292545</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>1098.722239872251</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>877.929660728721</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,10 +7487,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
         <v>508.1073603047985</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>649.6418670412196</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>870.4344461847497</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>649.6418670412196</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207831</v>
@@ -7675,25 +7675,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,10 +7724,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
         <v>508.1073603047985</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9020,16 +9020,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>137.4682402278088</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9491,10 +9491,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417969</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417969</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>258.0140763134345</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>205.51235721316</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>92.02543868571814</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>62.89511360339816</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>32.04930581735184</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>52.31591677926818</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>48.84084321165253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>97.10278639591797</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>52.3159167792686</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>48.84084321165204</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.18000134477694</v>
       </c>
       <c r="V34" t="n">
-        <v>248.8739234982644</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>140.3375291694985</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>82.39383318338562</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>116.0405633468334</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>46.17293556868924</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>213.0220289556703</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="10">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.589606563</v>
       </c>
       <c r="G2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.589606563</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="K2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.589606563</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="N2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="O2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065626</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806192</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.79369057587</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759104</v>
+        <v>787.7936905758211</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="K4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758063</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758697</v>
       </c>
     </row>
     <row r="5">
@@ -26469,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196104.7690603603</v>
+        <v>-196104.7690603606</v>
       </c>
       <c r="C6" t="n">
-        <v>393863.1101541837</v>
+        <v>393863.1101541842</v>
       </c>
       <c r="D6" t="n">
-        <v>393863.1101541839</v>
+        <v>393863.110154184</v>
       </c>
       <c r="E6" t="n">
-        <v>-32366.15776934717</v>
+        <v>-31489.0256355981</v>
       </c>
       <c r="F6" t="n">
-        <v>492793.8787075485</v>
+        <v>493671.0108412983</v>
       </c>
       <c r="G6" t="n">
-        <v>492793.8787075487</v>
+        <v>493671.0108412981</v>
       </c>
       <c r="H6" t="n">
-        <v>492793.8787075484</v>
+        <v>493671.0108412984</v>
       </c>
       <c r="I6" t="n">
-        <v>492793.8787075485</v>
+        <v>493671.0108412983</v>
       </c>
       <c r="J6" t="n">
-        <v>316370.6595149554</v>
+        <v>317247.7916487051</v>
       </c>
       <c r="K6" t="n">
-        <v>492793.8787075487</v>
+        <v>493671.0108412982</v>
       </c>
       <c r="L6" t="n">
-        <v>492793.878707549</v>
+        <v>493671.0108412983</v>
       </c>
       <c r="M6" t="n">
-        <v>357992.8634737118</v>
+        <v>358869.995607461</v>
       </c>
       <c r="N6" t="n">
-        <v>492793.8787075488</v>
+        <v>493671.0108412982</v>
       </c>
       <c r="O6" t="n">
-        <v>492793.8787075488</v>
+        <v>493671.0108412983</v>
       </c>
       <c r="P6" t="n">
-        <v>492793.8787075487</v>
+        <v>493671.010841298</v>
       </c>
     </row>
   </sheetData>
@@ -26740,37 +26740,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26819,7 +26819,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>239.8038512531359</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>75.45116101857406</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168084</v>
+        <v>207.8929377220962</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>141.6403594697505</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>93.67136369983045</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>65.77641248702801</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>96.92615468724705</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>166.8806347900445</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>28.73685725125222</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>108.6368017518377</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,22 +28019,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831826</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.244302867549568e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28286,13 +28286,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>6.41004286687045e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.298977755714201e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.823790099157014e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-1.005818063233699e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31147,7 +31147,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31381,25 +31381,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.8798454939265</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382424022</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -31849,16 +31849,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>446.235302870482</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>102.4943942860903</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31867,13 +31867,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>214.2308110391306</v>
+        <v>368.95525125851</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>380.4309478731432</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>65.12756871952004</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>216.4869287318327</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508798</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508798</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>216.4869287318327</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555644</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>246.2250987807837</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33976,25 +33976,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>143.8894692628929</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34456,7 +34456,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
         <v>392.6063366508803</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262116</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624598</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N12" t="n">
-        <v>794.2359651307022</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>286.9827555116972</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206094</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187117</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>465.4968858714157</v>
+        <v>226.3590068140656</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>6.126528144475494</v>
+        <v>728.4316101333634</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>64.38097739326219</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N21" t="n">
-        <v>572.6057846157851</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>343.1107267700523</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>343.1107267700523</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>239.4656922197786</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>239.4656922197785</v>
       </c>
       <c r="N33" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157846</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>430.7134600063906</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.9849829127205</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38037,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>740.6069989111005</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
